--- a/result2.xlsx
+++ b/result2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FY1</t>
+          <t>UAV_Alpha</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -501,7 +501,7 @@
         <v>9.531665436737258</v>
       </c>
       <c r="I2" t="n">
-        <v>1795.1</v>
+        <v>1795.085</v>
       </c>
       <c r="J2" t="n">
         <v>4.7</v>
@@ -510,41 +510,41 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FY2</t>
+          <t>UAV_Beta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>242.61</v>
+        <v>273.91</v>
       </c>
       <c r="C3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>11742.36357887055</v>
+        <v>12039.92181181833</v>
       </c>
       <c r="E3" t="n">
-        <v>902.7842776946699</v>
+        <v>816.3637700235347</v>
       </c>
       <c r="F3" t="n">
         <v>1400</v>
       </c>
       <c r="G3" t="n">
-        <v>11291.49984189402</v>
+        <v>12093.15089424278</v>
       </c>
       <c r="H3" t="n">
-        <v>32.65676366034211</v>
+        <v>38.1821300549143</v>
       </c>
       <c r="I3" t="n">
-        <v>1159.9</v>
+        <v>1223.06</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FY3</t>
+          <t>UAV_Gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -569,15 +569,19 @@
         <v>116.4771165923376</v>
       </c>
       <c r="I4" t="n">
-        <v>459.9</v>
+        <v>459.165</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>注：以x轴为正向，逆时针方向为正，取值0~360（度）。</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -587,22 +591,6 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>注：以x轴为正向，逆时针方向为正，取值0~360（度）。</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
